--- a/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.5024401975617963, 0.5170340989023596, 0.5151526414208251, 0.4593930042651452, 0.6282839412763306, 0.5223301499739756, 0.4766134253437698, 0.46935411377177305, 0.4847916378281686, 0.40884120712806094, 0.47009194025856643, 0.427483943005619, 0.44355259370347905, 0.4777091227681043, 0.39273836533563056, 0.373963972426112, 0.42831358332169517, 0.4445563893121485, 0.45163923791249444]</t>
+    <t>[1.0, 0.43727518493587086, 0.28613477544328186, 0.27199442917878686, 0.3099611735917779, 0.467973256164935, 0.3396808570056091, 0.2448466431936482, 0.21821445137316098, 0.21377132039456312, 0.21902846430909068, 0.23691302729989808, 0.23541187232751404, 0.21071593789224602, 0.22419646267745036, 0.20948392104713245, 0.2303178288568498, 0.2303690946519094, 0.16204017765824769, 0.15069940842756444]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.48236897606498436, 0.4024134180534379, 0.4048342022802889, 0.41215414613972895, 0.5054159236088739, 0.44217273696953124, 0.4273123233828727, 0.49764603127382523, 0.4341678197555879, 0.4095480284918155, 0.4901852375775851, 0.3951967574584214, 0.35569711673820614, 0.38687532603101443, 0.35749159861734164, 0.4162739585216648, 0.34611572133412427, 0.4211265612902203, 0.3973175666397362]</t>
+    <t>[1.0, 0.38916709900314567, 0.2671351704386194, 0.2584173185811342, 0.20862369260020014, 0.3991024229982721, 0.28846610100682035, 0.20625907679339422, 0.21251455954133502, 0.21285034733319905, 0.18581937307552124, 0.22445793664741498, 0.1971510425511354, 0.17385409045206168, 0.225549725874473, 0.1984651964423956, 0.2124441653047936, 0.21902780591950471, 0.18081301793715276, 0.1549700575228758]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.1265943927782083, 0.023792642029058945, 0.04259964721969289, 0.07569189153113443, 0.37570867857705087, 0.12205616030061298, 0.054589329705935066, 0.08065948718286206, 0.09004567668030015, 0.0528342912131126, 0.05218641023154138, 0.06931910234048162, 0.08084192064531064, 0.1600906921911198, 0.10137579125150088, 0.04754470287935678, 0.07330105497881605, 0.05464090813445139, 0.06857982238137578]</t>
+    <t>[1.0, 0.06395191982298506, -0.05351709397918391, -0.03223601164085689, 0.009227611377080277, 0.35157781501642676, 0.02263000124447862, -0.02276025665785845, -0.009789200777334141, -0.0002163434050001766, -0.023516358993410206, -0.049379264707421926, -7.515246758931471e-06, 0.004451247618535848, 0.012323789366523714, 0.003746767303173175, -0.02301872688112336, -0.0036016299964977054, -0.011621900899442782, -0.024313442163423897]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.08811110765567585, -0.002881499357443855, 0.020988237332275374, 0.049581270212552535, 0.3564795851122364, 0.10146576105386855, 0.03660105635103391, 0.06641806723341273, 0.08389423926243869, 0.04304624257398931, 0.04341426898116409, 0.06246581010350186, 0.07694097961455972, 0.147186602900994, 0.09347098787671576, 0.036065812829057166, 0.07421764691341037, 0.05649178651135623, 0.05611763385758193]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.11392056853894429, 0.044512589345301494, 0.06282645517480463, 0.09015297350587634, 0.32657082054555725, 0.11148880772348989, 0.04292631727569616, 0.06603692206361411, 0.08998100805744644, 0.0676138663857636, 0.07465092306712333, 0.061681143721184446, 0.08707577237624899, 0.14585518375072298, 0.08350987900198734, 0.03947666657233857, 0.07469206187457274, 0.08866106585051738, 0.058740383911972595]</t>
+    <t>[0.9999999999999999, 0.059842353250227055, -0.055751295046479646, -0.03380299768492689, 0.0066757047636034385, 0.3473572964904588, 0.020158682087921813, -0.02435268652801468, -0.01088036700055235, -0.001025194944400129, -0.0244682434237864, -0.05065735050401834, -0.0005925486518791323, 0.0039028803109815266, 0.012033765047920355, 0.0031947704540315003, -0.02382598553135098, -0.003421746699646458, -0.011418752972101669, -0.02434566323149332]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.07920536197451054, 0.005793542288766162, 0.01207935709793957, 0.03393166865203931, 0.27318277173271677, 0.0447918692878711, -0.003285963069549128, 0.015354859408816578, 0.02847226749698569, 0.01855307658450718, 0.0237243130875621, 0.02757375004618389, 0.04510355106307968, 0.03369678535166264, 0.011182759189600286, 0.01637705077038864, 0.051800863366321614, 0.04368335472013011, -0.013865528431752063]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5.686894670066777E-06</v>
+        <v>8.876168505136168E-07</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7594194765332782</v>
+        <v>0.6547751660728359</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3.818422250271729E-05</v>
+        <v>4.066589104907773E-06</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9378571428571428</v>
+        <v>1.051556420233463</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0007412465094721902</v>
+        <v>-0.0005949638109892461</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7668115885867071</v>
+        <v>0.6327209843211998</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>3.12521277313964E-05</v>
+        <v>2.700084099889127E-06</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0004763676801595433</v>
+        <v>0.0006872867163584654</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.8427360108741354</v>
+        <v>0.5987507056276733</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>2.46613095345031E-05</v>
+        <v>2.676715403092161E-06</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-2.573746312684331E-06</v>
+        <v>-2.751423149905367E-07</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>8.680794102894604E-07</v>
+        <v>9.830199089580138E-08</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-2.573746312684331E-06</v>
+        <v>-2.751423149905367E-07</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>8.680794102894604E-07</v>
+        <v>9.830199089580138E-08</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.68</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5.686894670066851E-06</v>
+        <v>8.876168505136168E-07</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>7.636844500543465E-07</v>
+        <v>4.066589104907772E-07</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.68</v>
+        <v>0.6749999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.759419476533278</v>
+        <v>0.6547751660728359</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.43727518493587086, 0.28613477544328186, 0.27199442917878686, 0.3099611735917779, 0.467973256164935, 0.3396808570056091, 0.2448466431936482, 0.21821445137316098, 0.21377132039456312, 0.21902846430909068, 0.23691302729989808, 0.23541187232751404, 0.21071593789224602, 0.22419646267745036, 0.20948392104713245, 0.2303178288568498, 0.2303690946519094, 0.16204017765824769, 0.15069940842756444]</t>
+    <t>[1.0, 0.01725367611630324, -0.07231940941169294, -0.05532376636399493, -0.09671975836559239, 0.13820335092151387, 0.06803179983886368, 0.05291314309029937, 0.038177140582319156, 0.045287223396612335, -0.002139298730657082, -0.033701805350904716, 0.011096970447720355, 0.037273268468067305, 0.07898957904792525, 0.03729759087333958, -0.015477061101819341, -0.009820360194695687, -0.012858705780243713, -0.011084155296903066]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.38916709900314567, 0.2671351704386194, 0.2584173185811342, 0.20862369260020014, 0.3991024229982721, 0.28846610100682035, 0.20625907679339422, 0.21251455954133502, 0.21285034733319905, 0.18581937307552124, 0.22445793664741498, 0.1971510425511354, 0.17385409045206168, 0.225549725874473, 0.1984651964423956, 0.2124441653047936, 0.21902780591950471, 0.18081301793715276, 0.1549700575228758]</t>
+    <t>[1.0, 0.12396570330166871, -0.005854818405963993, 0.018084495813276293, 0.0341108559206758, 0.02902000735434677, -0.003293867447770946, 0.032092444466914324, 0.02523830894547563, 0.021578400852515854, 0.020914166151904678, -0.0008959867308641242, -0.0012876800866132205, -0.019378398051696524, -0.028047799871448773, -0.026709684845678046, -0.03391741327343861, -0.015343108882375852, -0.03848653520976458, -0.007824847750583635]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.06395191982298506, -0.05351709397918391, -0.03223601164085689, 0.009227611377080277, 0.35157781501642676, 0.02263000124447862, -0.02276025665785845, -0.009789200777334141, -0.0002163434050001766, -0.023516358993410206, -0.049379264707421926, -7.515246758931471e-06, 0.004451247618535848, 0.012323789366523714, 0.003746767303173175, -0.02301872688112336, -0.0036016299964977054, -0.011621900899442782, -0.024313442163423897]</t>
+    <t>[1.0, 0.013366203324305352, -0.06944102166179965, -0.08133344385288564, -0.11443852533211371, 0.1688209169813987, 0.06885018054144888, 0.05757761690568013, 0.04499659081015883, 0.037391599012683935, -0.032032469388477695, -0.04833174146775635, 0.0026685243080285417, 0.06346892333807547, 0.09504684112663411, 0.05386168862770744, -0.013553863190105713, -0.04363370454431479, -0.04460767103716553, -0.019516263290918164]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.059842353250227055, -0.055751295046479646, -0.03380299768492689, 0.0066757047636034385, 0.3473572964904588, 0.020158682087921813, -0.02435268652801468, -0.01088036700055235, -0.001025194944400129, -0.0244682434237864, -0.05065735050401834, -0.0005925486518791323, 0.0039028803109815266, 0.012033765047920355, 0.0031947704540315003, -0.02382598553135098, -0.003421746699646458, -0.011418752972101669, -0.02434566323149332]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.07920536197451054, 0.005793542288766162, 0.01207935709793957, 0.03393166865203931, 0.27318277173271677, 0.0447918692878711, -0.003285963069549128, 0.015354859408816578, 0.02847226749698569, 0.01855307658450718, 0.0237243130875621, 0.02757375004618389, 0.04510355106307968, 0.03369678535166264, 0.011182759189600286, 0.01637705077038864, 0.051800863366321614, 0.04368335472013011, -0.013865528431752063]</t>
+    <t>[1.0, 0.006464966103609707, -0.06797729157429312, -0.07972534273645178, -0.11450882985376855, 0.16981153984242933, 0.06685367720488845, 0.05673594431810227, 0.044599939871101564, 0.037301345630700075, -0.031148517991422906, -0.04743482175499228, 0.0032607119732075453, 0.0625069138557058, 0.09368239812880454, 0.05354862240444152, -0.012670262002158742, -0.043065961766057086, -0.043496986170644285, -0.018942217487543597]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.0134913442410164, -0.07170485565310351, -0.05450856765181642, -0.0967198119433175, 0.13869596726737968, 0.06743067916676847, 0.052596915790543965, 0.03789332005786615, 0.04539667342739283, -0.0018571992410704634, -0.033250816883565605, 0.011312951659183597, 0.03644726176443869, 0.07868018792776157, 0.03725634122715192, -0.015230342333643492, -0.009626361256997366, -0.01243516040698391, -0.01104977978542391]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>8.876168505136168E-07</v>
+        <v>-0.005433576865364477</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.6547751660728359</v>
+        <v>0.7683170787553154</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4.066589104907773E-06</v>
+        <v>0.1004264215478384</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0005949638109892461</v>
+        <v>-0.1546161113014869</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.6327209843211998</v>
+        <v>0.6297699631694609</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2.700084099889127E-06</v>
+        <v>0.0510167397912923</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0006872867163584654</v>
+        <v>0.1539023900008555</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5987507056276733</v>
+        <v>0.6076610186296069</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>2.676715403092161E-06</v>
+        <v>0.04893651470563919</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-2.751423149905367E-07</v>
+        <v>-0.0001471735244537303</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>9.830199089580138E-08</v>
+        <v>0.0203249893504086</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>5.162627528144787E-08</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.88</v>
+        <v>0.8212691572044912</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-2.751423149905367E-07</v>
+        <v>0.0002551511711441063</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>9.830199089580138E-08</v>
+        <v>0.1126321227070231</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.01653271810613912</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01</v>
+        <v>-0.01653271810157852</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>8.876168505136168E-07</v>
+        <v>-0.005507397691484082</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>4.066589104907772E-07</v>
+        <v>0.1000333387772622</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0.007569928075160842</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.6749999999999999</v>
+        <v>5.691837091256092E-10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.05</v>
+        <v>-0.007569928123403419</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.6547751660728359</v>
+        <v>0.7682907220672144</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.09364027605730657, -0.005320867518595518, 0.002292056527402148, -0.05105934835964014, 0.164093076509593, 0.11629208849342569, 0.0951108776136664, 0.07721293301536647, 0.059034329852118754, 0.03836930420105211, 0.012136849031958944, 0.039858701961819946, 0.09521411838624708, 0.11273162195122423, 0.09157025050239714, 0.04102046763256851, 0.025185300343410464, 0.035640055646988016, 0.026769456979265006]</t>
+    <t>[1.0, 0.5024401975617963, 0.5170340989023596, 0.5151526414208251, 0.4593930042651452, 0.6282839412763306, 0.5223301499739756, 0.4766134253437698, 0.46935411377177305, 0.4847916378281686, 0.40884120712806094, 0.47009194025856643, 0.427483943005619, 0.44355259370347905, 0.4777091227681043, 0.39273836533563056, 0.373963972426112, 0.42831358332169517, 0.4445563893121485, 0.45163923791249444]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.12522023742706562, 0.022915987512782027, 0.04696683494036151, 0.04431732709878354, 0.044787456098239364, -0.0036181723807738563, 0.01981037944743059, 0.027054761899575397, 0.014503295448712008, -0.001641424892795206, 0.0037272306414800603, 0.006815362395061564, 0.01597439520241438, 0.016121043781211798, -0.008912114868788804, -0.028006804367502986, -0.00016239648509666283, -0.013825954214652048, 0.020898220567345843]</t>
+    <t>[1.0, 0.48236897606498436, 0.4024134180534379, 0.4048342022802889, 0.41215414613972895, 0.5054159236088739, 0.44217273696953124, 0.4273123233828727, 0.49764603127382523, 0.4341678197555879, 0.4095480284918155, 0.4901852375775851, 0.3951967574584214, 0.35569711673820614, 0.38687532603101443, 0.35749159861734164, 0.4162739585216648, 0.34611572133412427, 0.4211265612902203, 0.3973175666397362]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.06858039261919133, -0.03130430818800995, -0.055306809889585785, -0.08894947551271805, 0.13742050578842588, 0.09006270519385741, 0.08815109936031505, 0.06053069393012933, 0.03677372542666845, -0.00531713671853415, -0.03187045656358475, 0.015153522378055615, 0.07498224821769668, 0.08628665047362706, 0.06618726595782279, 0.025878317389920323, -0.02130983231502641, -0.019543902513291665, 0.0075764971882993325]</t>
+    <t>[0.9999999999999998, 0.1265943927782083, 0.023792642029058945, 0.04259964721969289, 0.07569189153113443, 0.37570867857705087, 0.12205616030061298, 0.054589329705935066, 0.08065948718286206, 0.09004567668030015, 0.0528342912131126, 0.05218641023154138, 0.06931910234048162, 0.08084192064531064, 0.1600906921911198, 0.10137579125150088, 0.04754470287935678, 0.07330105497881605, 0.05464090813445139, 0.06857982238137578]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.06870014035153647, -0.031217351129500488, -0.05536789625603126, -0.08895899226039233, 0.13760571937164834, 0.0900943208607224, 0.08840915295998887, 0.06053830666398249, 0.036929240388387005, -0.005494290841922977, -0.032033948984715635, 0.015349235561267206, 0.07503431808967093, 0.08631515991043907, 0.06634706378422496, 0.02581964102868777, -0.02133443135729912, -0.019515575688386116, 0.007594122000042228]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.06769015528750634, -0.021874422104536224, -0.005387042732320929, -0.056258463183160974, 0.12897108710625546, 0.09979703635390794, 0.07999990873790934, 0.05583217544379108, 0.042706111996929086, 0.032655339583775186, -0.0008182939388430316, 0.01603283290548894, 0.06220191219863666, 0.06927771148836191, 0.06954355773588423, 0.03043815551699535, 0.0031384557929653397, 0.014703102153587663, 0.004854967952887167]</t>
+    <t>[0.9999999999999999, 0.08811110765567585, -0.002881499357443855, 0.020988237332275374, 0.049581270212552535, 0.3564795851122364, 0.10146576105386855, 0.03660105635103391, 0.06641806723341273, 0.08389423926243869, 0.04304624257398931, 0.04341426898116409, 0.06246581010350186, 0.07694097961455972, 0.147186602900994, 0.09347098787671576, 0.036065812829057166, 0.07421764691341037, 0.05649178651135623, 0.05611763385758193]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.11392056853894429, 0.044512589345301494, 0.06282645517480463, 0.09015297350587634, 0.32657082054555725, 0.11148880772348989, 0.04292631727569616, 0.06603692206361411, 0.08998100805744644, 0.0676138663857636, 0.07465092306712333, 0.061681143721184446, 0.08707577237624899, 0.14585518375072298, 0.08350987900198734, 0.03947666657233857, 0.07469206187457274, 0.08866106585051738, 0.058740383911972595]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.005538940121373896</v>
+        <v>5.686894670066777E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7565008152775261</v>
+        <v>0.7594194765332782</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1054753137422253</v>
+        <v>3.818422250271729E-05</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1770719567619919</v>
+        <v>-0.0007412465094721902</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.5948429625382661</v>
+        <v>0.7668115885867071</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.05284729814562612</v>
+        <v>3.12521277313964E-05</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1190563572167943</v>
+        <v>0.0004763676801595433</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6762193081393595</v>
+        <v>0.8427360108741354</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.04735522583501942</v>
+        <v>2.46613095345031E-05</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001558468325745106</v>
+        <v>-2.573746312684331E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0003252092597450451</v>
+        <v>8.680794102894604E-07</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06248597690069534</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9375140230813479</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001517992956070994</v>
+        <v>-2.573746312684331E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0003270905560496516</v>
+        <v>8.680794102894604E-07</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.05953344103826835</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.937433622998312</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.006065871926839219</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0003838393454963386</v>
+        <v>5.686894670066851E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.000309343004809634</v>
+        <v>7.636844500543465E-07</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06168664379861273</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9314212511408211</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01378436568743781</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7374501033443872</v>
+        <v>0.759419476533278</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.5024401975617963, 0.5170340989023596, 0.5151526414208251, 0.4593930042651452, 0.6282839412763306, 0.5223301499739756, 0.4766134253437698, 0.46935411377177305, 0.4847916378281686, 0.40884120712806094, 0.47009194025856643, 0.427483943005619, 0.44355259370347905, 0.4777091227681043, 0.39273836533563056, 0.373963972426112, 0.42831358332169517, 0.4445563893121485, 0.45163923791249444]</t>
+    <t>[1.0, 0.5024401975617965, 0.5170340989023595, 0.5151526414208247, 0.45939300426514446, 0.62828394127633, 0.5223301499739759, 0.47661342534376994, 0.4693541137717731, 0.48479163782816875, 0.4088412071280608, 0.47009194025856615, 0.4274839430056188, 0.44355259370347927, 0.4777091227681039, 0.3927383653356306, 0.37396397242611235, 0.42831358332169495, 0.4445563893121488, 0.4516392379124947]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.48236897606498436, 0.4024134180534379, 0.4048342022802889, 0.41215414613972895, 0.5054159236088739, 0.44217273696953124, 0.4273123233828727, 0.49764603127382523, 0.4341678197555879, 0.4095480284918155, 0.4901852375775851, 0.3951967574584214, 0.35569711673820614, 0.38687532603101443, 0.35749159861734164, 0.4162739585216648, 0.34611572133412427, 0.4211265612902203, 0.3973175666397362]</t>
+    <t>[1.0, 0.4823689760649842, 0.40241341805343794, 0.40483420228028905, 0.4121541461397293, 0.5054159236088736, 0.4421727369695309, 0.42731232338287284, 0.4976460312738252, 0.43416781975558805, 0.4095480284918155, 0.4901852375775848, 0.39519675745842126, 0.35569711673820575, 0.38687532603101454, 0.35749159861734203, 0.41627395852166454, 0.3461157213341245, 0.4211265612902203, 0.39731756663973605]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.1265943927782083, 0.023792642029058945, 0.04259964721969289, 0.07569189153113443, 0.37570867857705087, 0.12205616030061298, 0.054589329705935066, 0.08065948718286206, 0.09004567668030015, 0.0528342912131126, 0.05218641023154138, 0.06931910234048162, 0.08084192064531064, 0.1600906921911198, 0.10137579125150088, 0.04754470287935678, 0.07330105497881605, 0.05464090813445139, 0.06857982238137578]</t>
+    <t>[1.0, 0.12659439277820822, 0.023792642029058942, 0.0425996472196929, 0.07569189153113441, 0.37570867857705076, 0.12205616030061299, 0.0545893297059351, 0.08065948718286206, 0.09004567668030014, 0.05283429121311259, 0.05218641023154136, 0.06931910234048164, 0.08084192064531065, 0.16009069219111988, 0.10137579125150094, 0.04754470287935676, 0.07330105497881605, 0.05464090813445138, 0.06857982238137578]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.08811110765567585, -0.002881499357443855, 0.020988237332275374, 0.049581270212552535, 0.3564795851122364, 0.10146576105386855, 0.03660105635103391, 0.06641806723341273, 0.08389423926243869, 0.04304624257398931, 0.04341426898116409, 0.06246581010350186, 0.07694097961455972, 0.147186602900994, 0.09347098787671576, 0.036065812829057166, 0.07421764691341037, 0.05649178651135623, 0.05611763385758193]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.11392056853894429, 0.044512589345301494, 0.06282645517480463, 0.09015297350587634, 0.32657082054555725, 0.11148880772348989, 0.04292631727569616, 0.06603692206361411, 0.08998100805744644, 0.0676138663857636, 0.07465092306712333, 0.061681143721184446, 0.08707577237624899, 0.14585518375072298, 0.08350987900198734, 0.03947666657233857, 0.07469206187457274, 0.08866106585051738, 0.058740383911972595]</t>
+    <t>[0.9999999999999999, 0.08811110765567588, -0.0028814993574438367, 0.02098823733227541, 0.04958127021255254, 0.3564795851122364, 0.10146576105386859, 0.036601056351033945, 0.06641806723341277, 0.08389423926243868, 0.04304624257398929, 0.0434142689811641, 0.06246581010350186, 0.07694097961455969, 0.14718660290099408, 0.09347098787671579, 0.03606581282905717, 0.07421764691341039, 0.056491786511356216, 0.0561176338575819]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.11392056853894425, 0.04451258934530135, 0.06282645517480455, 0.09015297350587624, 0.32657082054555725, 0.11148880772348997, 0.04292631727569613, 0.06603692206361407, 0.08998100805744648, 0.06761386638576354, 0.0746509230671232, 0.061681143721184446, 0.0870757723762489, 0.14585518375072296, 0.08350987900198731, 0.03947666657233854, 0.0746920618745727, 0.08866106585051728, 0.05874038391197255]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5.686894670066777E-06</v>
+        <v>5.686894670066944E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7594194765332782</v>
+        <v>0.7594194765332783</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9378571428571428</v>
+        <v>0.4839660892001474</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0007412465094721902</v>
+        <v>-0.0007412465094721889</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7668115885867071</v>
+        <v>0.7668115885867068</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>3.12521277313964E-05</v>
+        <v>3.125212773139641E-05</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0004763676801595433</v>
+        <v>0.0004763676801595431</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.8427360108741354</v>
+        <v>0.8427360108741357</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>2.46613095345031E-05</v>
+        <v>2.466130953450309E-05</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-2.573746312684331E-06</v>
+        <v>-2.573746312684395E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-2.573746312684331E-06</v>
+        <v>-2.573746312684395E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5.686894670066851E-06</v>
+        <v>5.686894670066944E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>7.636844500543465E-07</v>
+        <v>7.636844500543464E-07</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.759419476533278</v>
+        <v>0.7594194765332783</v>
       </c>
     </row>
   </sheetData>
